--- a/horarios_optimizados-536-push_gap_0.80.xlsx
+++ b/horarios_optimizados-536-push_gap_0.80.xlsx
@@ -612,11 +612,7 @@
       <c r="G5" s="4" t="inlineStr"/>
       <c r="H5" s="4" t="inlineStr"/>
       <c r="I5" s="4" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J5" s="4" t="inlineStr"/>
       <c r="K5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -632,17 +628,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O5" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P5" s="4" t="inlineStr"/>
       <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -688,19 +684,27 @@
       <c r="B6" s="4" t="inlineStr"/>
       <c r="C6" s="4" t="inlineStr"/>
       <c r="D6" s="4" t="inlineStr"/>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I6" s="4" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -721,7 +725,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -778,92 +786,24 @@
       <c r="C7" s="4" t="inlineStr"/>
       <c r="D7" s="4" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="4" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
+      <c r="O7" s="4" t="inlineStr"/>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -878,21 +818,77 @@
       <c r="F8" s="4" t="inlineStr"/>
       <c r="G8" s="4" t="inlineStr"/>
       <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="4" t="inlineStr"/>
-      <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="4" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M8" s="4" t="inlineStr"/>
-      <c r="N8" s="4" t="inlineStr"/>
-      <c r="O8" s="4" t="inlineStr"/>
-      <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -904,15 +900,27 @@
       <c r="C9" s="4" t="inlineStr"/>
       <c r="D9" s="4" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="4" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J9" s="4" t="inlineStr"/>
       <c r="K9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -943,7 +951,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -959,21 +971,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U9" s="4" t="inlineStr"/>
+      <c r="V9" s="4" t="inlineStr"/>
+      <c r="W9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -981,27 +981,19 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1017,11 +1009,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J10" s="4" t="inlineStr"/>
       <c r="K10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1072,9 +1060,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1087,29 +1087,29 @@
       <c r="D11" s="4" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr"/>
       <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
+      <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1239,12 +1239,36 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr"/>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1260,22 +1284,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="inlineStr"/>
       <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N15" s="4" t="inlineStr"/>
       <c r="O15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1331,68 +1343,20 @@
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" s="4" t="inlineStr"/>
       <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="inlineStr"/>
+      <c r="G16" s="4" t="inlineStr"/>
+      <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr"/>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
       <c r="S16" s="4" t="inlineStr"/>
       <c r="T16" s="4" t="inlineStr"/>
       <c r="U16" s="4" t="inlineStr"/>
@@ -1405,16 +1369,8 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
       <c r="D17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1506,9 +1462,21 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1524,17 +1492,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="4" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J18" s="4" t="inlineStr"/>
       <c r="K18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1570,36 +1530,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -1636,7 +1572,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O19" s="4" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1647,11 +1587,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R19" s="4" t="inlineStr"/>
       <c r="S19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1754,7 +1690,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T20" s="4" t="inlineStr"/>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U20" s="4" t="inlineStr"/>
       <c r="V20" s="4" t="inlineStr"/>
       <c r="W20" s="4" t="inlineStr"/>
@@ -1769,22 +1709,82 @@
       <c r="C21" s="4" t="inlineStr"/>
       <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
-      <c r="M21" s="4" t="inlineStr"/>
-      <c r="N21" s="4" t="inlineStr"/>
-      <c r="O21" s="4" t="inlineStr"/>
-      <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="4" t="inlineStr"/>
-      <c r="R21" s="4" t="inlineStr"/>
-      <c r="S21" s="4" t="inlineStr"/>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
     </row>
@@ -1880,22 +1880,82 @@
       <c r="E25" s="4" t="inlineStr"/>
       <c r="F25" s="4" t="inlineStr"/>
       <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="4" t="inlineStr"/>
-      <c r="L25" s="4" t="inlineStr"/>
-      <c r="M25" s="4" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N25" s="4" t="inlineStr"/>
-      <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="4" t="inlineStr"/>
-      <c r="R25" s="4" t="inlineStr"/>
-      <c r="S25" s="4" t="inlineStr"/>
-      <c r="T25" s="4" t="inlineStr"/>
-      <c r="U25" s="4" t="inlineStr"/>
-      <c r="V25" s="4" t="inlineStr"/>
-      <c r="W25" s="4" t="inlineStr"/>
+      <c r="O25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -1903,90 +1963,26 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr"/>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="4" t="inlineStr"/>
       <c r="H26" s="4" t="inlineStr"/>
       <c r="I26" s="4" t="inlineStr"/>
       <c r="J26" s="4" t="inlineStr"/>
       <c r="K26" s="4" t="inlineStr"/>
-      <c r="L26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L26" s="4" t="inlineStr"/>
+      <c r="M26" s="4" t="inlineStr"/>
+      <c r="N26" s="4" t="inlineStr"/>
+      <c r="O26" s="4" t="inlineStr"/>
+      <c r="P26" s="4" t="inlineStr"/>
+      <c r="Q26" s="4" t="inlineStr"/>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
       <c r="V26" s="4" t="inlineStr"/>
       <c r="W26" s="4" t="inlineStr"/>
     </row>
@@ -1997,27 +1993,19 @@
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr"/>
       <c r="F27" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2033,26 +2021,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K27" s="4" t="inlineStr"/>
+      <c r="L27" s="4" t="inlineStr"/>
+      <c r="M27" s="4" t="inlineStr"/>
+      <c r="N27" s="4" t="inlineStr"/>
       <c r="O27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2179,16 +2151,8 @@
       <c r="D29" s="4" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr"/>
       <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
       <c r="I29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2199,10 +2163,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M29" s="4" t="inlineStr"/>
-      <c r="N29" s="4" t="inlineStr"/>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2243,7 +2219,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W29" s="4" t="inlineStr"/>
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2251,12 +2231,32 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F30" s="4" t="inlineStr"/>
-      <c r="G30" s="4" t="inlineStr"/>
+      <c r="G30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2282,7 +2282,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M30" s="4" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2318,21 +2322,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2340,10 +2332,26 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2359,12 +2367,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2410,16 +2418,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
       <c r="V31" s="4" t="inlineStr"/>
       <c r="W31" s="4" t="inlineStr"/>
     </row>
@@ -2509,24 +2509,92 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr"/>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr"/>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
-      <c r="G35" s="4" t="inlineStr"/>
-      <c r="H35" s="4" t="inlineStr"/>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I35" s="4" t="inlineStr"/>
-      <c r="J35" s="4" t="inlineStr"/>
-      <c r="K35" s="4" t="inlineStr"/>
-      <c r="L35" s="4" t="inlineStr"/>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr"/>
-      <c r="O35" s="4" t="inlineStr"/>
-      <c r="P35" s="4" t="inlineStr"/>
-      <c r="Q35" s="4" t="inlineStr"/>
-      <c r="R35" s="4" t="inlineStr"/>
-      <c r="S35" s="4" t="inlineStr"/>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T35" s="4" t="inlineStr"/>
       <c r="U35" s="4" t="inlineStr"/>
       <c r="V35" s="4" t="inlineStr"/>
@@ -2543,11 +2611,7 @@
       <c r="D36" s="4" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr"/>
       <c r="F36" s="4" t="inlineStr"/>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G36" s="4" t="inlineStr"/>
       <c r="H36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2563,10 +2627,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K36" s="4" t="inlineStr"/>
-      <c r="L36" s="4" t="inlineStr"/>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr"/>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2645,8 +2721,16 @@
         </is>
       </c>
       <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
+      <c r="H37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2677,36 +2761,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P37" s="4" t="inlineStr"/>
+      <c r="Q37" s="4" t="inlineStr"/>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr"/>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
       <c r="V37" s="4" t="inlineStr"/>
       <c r="W37" s="4" t="inlineStr"/>
     </row>
@@ -2721,31 +2781,39 @@
       <c r="D38" s="4" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr"/>
       <c r="F38" s="4" t="inlineStr"/>
-      <c r="G38" s="4" t="inlineStr"/>
-      <c r="H38" s="4" t="inlineStr"/>
-      <c r="I38" s="4" t="inlineStr"/>
-      <c r="J38" s="4" t="inlineStr"/>
-      <c r="K38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="inlineStr"/>
+      <c r="L38" s="4" t="inlineStr"/>
+      <c r="M38" s="4" t="inlineStr"/>
       <c r="N38" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O38" s="4" t="inlineStr"/>
+      <c r="O38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2833,34 +2901,50 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O39" s="4" t="inlineStr"/>
-      <c r="P39" s="4" t="inlineStr"/>
-      <c r="Q39" s="4" t="inlineStr"/>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr"/>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V39" s="4" t="inlineStr"/>
       <c r="W39" s="4" t="inlineStr"/>
     </row>
@@ -2874,11 +2958,7 @@
       <c r="C40" s="4" t="inlineStr"/>
       <c r="D40" s="4" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="F40" s="4" t="inlineStr"/>
       <c r="G40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2894,27 +2974,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
       <c r="O40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2967,92 +3035,24 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B41" s="4" t="inlineStr"/>
+      <c r="C41" s="4" t="inlineStr"/>
+      <c r="D41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr"/>
+      <c r="F41" s="4" t="inlineStr"/>
+      <c r="G41" s="4" t="inlineStr"/>
+      <c r="H41" s="4" t="inlineStr"/>
       <c r="I41" s="4" t="inlineStr"/>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S41" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J41" s="4" t="inlineStr"/>
+      <c r="K41" s="4" t="inlineStr"/>
+      <c r="L41" s="4" t="inlineStr"/>
+      <c r="M41" s="4" t="inlineStr"/>
+      <c r="N41" s="4" t="inlineStr"/>
+      <c r="O41" s="4" t="inlineStr"/>
+      <c r="P41" s="4" t="inlineStr"/>
+      <c r="Q41" s="4" t="inlineStr"/>
+      <c r="R41" s="4" t="inlineStr"/>
+      <c r="S41" s="4" t="inlineStr"/>
       <c r="T41" s="4" t="inlineStr"/>
       <c r="U41" s="4" t="inlineStr"/>
       <c r="V41" s="4" t="inlineStr"/>
@@ -3144,16 +3144,8 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C45" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B45" s="4" t="inlineStr"/>
+      <c r="C45" s="4" t="inlineStr"/>
       <c r="D45" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3230,8 +3222,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
+      <c r="T45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U45" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V45" s="4" t="inlineStr"/>
       <c r="W45" s="4" t="inlineStr"/>
     </row>
@@ -3241,14 +3241,42 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr"/>
-      <c r="C46" s="4" t="inlineStr"/>
-      <c r="D46" s="4" t="inlineStr"/>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
+      <c r="I46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J46" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3274,7 +3302,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O46" s="4" t="inlineStr"/>
+      <c r="O46" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P46" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3300,21 +3332,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W46" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr"/>
+      <c r="W46" s="4" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -3329,21 +3349,77 @@
       <c r="F47" s="4" t="inlineStr"/>
       <c r="G47" s="4" t="inlineStr"/>
       <c r="H47" s="4" t="inlineStr"/>
-      <c r="I47" s="4" t="inlineStr"/>
-      <c r="J47" s="4" t="inlineStr"/>
-      <c r="K47" s="4" t="inlineStr"/>
-      <c r="L47" s="4" t="inlineStr"/>
+      <c r="I47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M47" s="4" t="inlineStr"/>
-      <c r="N47" s="4" t="inlineStr"/>
-      <c r="O47" s="4" t="inlineStr"/>
-      <c r="P47" s="4" t="inlineStr"/>
-      <c r="Q47" s="4" t="inlineStr"/>
-      <c r="R47" s="4" t="inlineStr"/>
-      <c r="S47" s="4" t="inlineStr"/>
-      <c r="T47" s="4" t="inlineStr"/>
-      <c r="U47" s="4" t="inlineStr"/>
-      <c r="V47" s="4" t="inlineStr"/>
-      <c r="W47" s="4" t="inlineStr"/>
+      <c r="N47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W47" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -3356,87 +3432,23 @@
       <c r="D48" s="4" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr"/>
       <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
       <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W48" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr"/>
+      <c r="Q48" s="4" t="inlineStr"/>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr"/>
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr"/>
+      <c r="W48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -3449,8 +3461,16 @@
       <c r="D49" s="4" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr"/>
       <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
-      <c r="H49" s="4" t="inlineStr"/>
+      <c r="G49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3461,21 +3481,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M49" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
       <c r="N49" s="4" t="inlineStr"/>
       <c r="O49" s="5" t="inlineStr">
         <is>
@@ -3512,8 +3520,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V49" s="4" t="inlineStr"/>
-      <c r="W49" s="4" t="inlineStr"/>
+      <c r="V49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W49" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -3521,37 +3537,13 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B50" s="4" t="inlineStr"/>
+      <c r="C50" s="4" t="inlineStr"/>
+      <c r="D50" s="4" t="inlineStr"/>
+      <c r="E50" s="4" t="inlineStr"/>
       <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
       <c r="I50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3582,11 +3574,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O50" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O50" s="4" t="inlineStr"/>
       <c r="P50" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3612,9 +3600,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr"/>
-      <c r="W50" s="4" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W50" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -3627,8 +3627,16 @@
       <c r="D51" s="4" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr"/>
       <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
+      <c r="G51" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H51" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3639,27 +3647,19 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M51" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
       <c r="N51" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O51" s="4" t="inlineStr"/>
+      <c r="O51" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P51" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3782,85 +3782,25 @@
       <c r="B55" s="4" t="inlineStr"/>
       <c r="C55" s="4" t="inlineStr"/>
       <c r="D55" s="4" t="inlineStr"/>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="E55" s="4" t="inlineStr"/>
+      <c r="F55" s="4" t="inlineStr"/>
+      <c r="G55" s="4" t="inlineStr"/>
+      <c r="H55" s="4" t="inlineStr"/>
+      <c r="I55" s="4" t="inlineStr"/>
+      <c r="J55" s="4" t="inlineStr"/>
       <c r="K55" s="4" t="inlineStr"/>
       <c r="L55" s="4" t="inlineStr"/>
       <c r="M55" s="4" t="inlineStr"/>
       <c r="N55" s="4" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W55" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O55" s="4" t="inlineStr"/>
+      <c r="P55" s="4" t="inlineStr"/>
+      <c r="Q55" s="4" t="inlineStr"/>
+      <c r="R55" s="4" t="inlineStr"/>
+      <c r="S55" s="4" t="inlineStr"/>
+      <c r="T55" s="4" t="inlineStr"/>
+      <c r="U55" s="4" t="inlineStr"/>
+      <c r="V55" s="4" t="inlineStr"/>
+      <c r="W55" s="4" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -3868,26 +3808,94 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr"/>
-      <c r="C56" s="4" t="inlineStr"/>
-      <c r="D56" s="4" t="inlineStr"/>
-      <c r="E56" s="4" t="inlineStr"/>
-      <c r="F56" s="4" t="inlineStr"/>
-      <c r="G56" s="4" t="inlineStr"/>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H56" s="4" t="inlineStr"/>
       <c r="I56" s="4" t="inlineStr"/>
       <c r="J56" s="4" t="inlineStr"/>
-      <c r="K56" s="4" t="inlineStr"/>
-      <c r="L56" s="4" t="inlineStr"/>
-      <c r="M56" s="4" t="inlineStr"/>
-      <c r="N56" s="4" t="inlineStr"/>
-      <c r="O56" s="4" t="inlineStr"/>
-      <c r="P56" s="4" t="inlineStr"/>
-      <c r="Q56" s="4" t="inlineStr"/>
-      <c r="R56" s="4" t="inlineStr"/>
-      <c r="S56" s="4" t="inlineStr"/>
-      <c r="T56" s="4" t="inlineStr"/>
-      <c r="U56" s="4" t="inlineStr"/>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U56" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V56" s="4" t="inlineStr"/>
       <c r="W56" s="4" t="inlineStr"/>
     </row>
@@ -3897,9 +3905,21 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr"/>
-      <c r="C57" s="4" t="inlineStr"/>
-      <c r="D57" s="4" t="inlineStr"/>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E57" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3910,22 +3930,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G57" s="4" t="inlineStr"/>
+      <c r="H57" s="4" t="inlineStr"/>
       <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J57" s="4" t="inlineStr"/>
       <c r="K57" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3981,16 +3989,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W57" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V57" s="4" t="inlineStr"/>
+      <c r="W57" s="4" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -4001,7 +4001,11 @@
       <c r="B58" s="4" t="inlineStr"/>
       <c r="C58" s="4" t="inlineStr"/>
       <c r="D58" s="4" t="inlineStr"/>
-      <c r="E58" s="4" t="inlineStr"/>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F58" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4017,11 +4021,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I58" s="4" t="inlineStr"/>
       <c r="J58" s="4" t="inlineStr"/>
       <c r="K58" s="5" t="inlineStr">
         <is>
@@ -4127,13 +4127,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K59" s="4" t="inlineStr"/>
-      <c r="L59" s="4" t="inlineStr"/>
+      <c r="J59" s="4" t="inlineStr"/>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L59" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M59" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4149,26 +4153,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S59" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P59" s="4" t="inlineStr"/>
+      <c r="Q59" s="4" t="inlineStr"/>
+      <c r="R59" s="4" t="inlineStr"/>
+      <c r="S59" s="4" t="inlineStr"/>
       <c r="T59" s="4" t="inlineStr"/>
       <c r="U59" s="4" t="inlineStr"/>
       <c r="V59" s="4" t="inlineStr"/>
@@ -4186,9 +4174,21 @@
       <c r="E60" s="4" t="inlineStr"/>
       <c r="F60" s="4" t="inlineStr"/>
       <c r="G60" s="4" t="inlineStr"/>
-      <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4199,17 +4199,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M60" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M60" s="4" t="inlineStr"/>
       <c r="N60" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O60" s="4" t="inlineStr"/>
+      <c r="O60" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P60" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4264,7 +4264,11 @@
       <c r="F61" s="4" t="inlineStr"/>
       <c r="G61" s="4" t="inlineStr"/>
       <c r="H61" s="4" t="inlineStr"/>
-      <c r="I61" s="4" t="inlineStr"/>
+      <c r="I61" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J61" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4290,11 +4294,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O61" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O61" s="4" t="inlineStr"/>
       <c r="P61" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4414,98 +4414,26 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B65" s="4" t="inlineStr"/>
+      <c r="C65" s="4" t="inlineStr"/>
+      <c r="D65" s="4" t="inlineStr"/>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr"/>
+      <c r="H65" s="4" t="inlineStr"/>
       <c r="I65" s="4" t="inlineStr"/>
       <c r="J65" s="4" t="inlineStr"/>
-      <c r="K65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U65" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K65" s="4" t="inlineStr"/>
+      <c r="L65" s="4" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr"/>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="inlineStr"/>
+      <c r="Q65" s="4" t="inlineStr"/>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr"/>
+      <c r="T65" s="4" t="inlineStr"/>
+      <c r="U65" s="4" t="inlineStr"/>
       <c r="V65" s="4" t="inlineStr"/>
       <c r="W65" s="4" t="inlineStr"/>
     </row>
@@ -4515,37 +4443,21 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B66" s="4" t="inlineStr"/>
+      <c r="C66" s="4" t="inlineStr"/>
+      <c r="D66" s="4" t="inlineStr"/>
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
       <c r="G66" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H66" s="4" t="inlineStr"/>
+      <c r="H66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I66" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4556,11 +4468,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K66" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K66" s="4" t="inlineStr"/>
       <c r="L66" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4576,15 +4484,51 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O66" s="4" t="inlineStr"/>
-      <c r="P66" s="4" t="inlineStr"/>
-      <c r="Q66" s="4" t="inlineStr"/>
-      <c r="R66" s="4" t="inlineStr"/>
-      <c r="S66" s="4" t="inlineStr"/>
-      <c r="T66" s="4" t="inlineStr"/>
-      <c r="U66" s="4" t="inlineStr"/>
-      <c r="V66" s="4" t="inlineStr"/>
-      <c r="W66" s="4" t="inlineStr"/>
+      <c r="O66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W66" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -4596,24 +4540,92 @@
       <c r="C67" s="4" t="inlineStr"/>
       <c r="D67" s="4" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr"/>
-      <c r="F67" s="4" t="inlineStr"/>
-      <c r="G67" s="4" t="inlineStr"/>
-      <c r="H67" s="4" t="inlineStr"/>
-      <c r="I67" s="4" t="inlineStr"/>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J67" s="4" t="inlineStr"/>
-      <c r="K67" s="4" t="inlineStr"/>
-      <c r="L67" s="4" t="inlineStr"/>
-      <c r="M67" s="4" t="inlineStr"/>
-      <c r="N67" s="4" t="inlineStr"/>
-      <c r="O67" s="4" t="inlineStr"/>
-      <c r="P67" s="4" t="inlineStr"/>
-      <c r="Q67" s="4" t="inlineStr"/>
-      <c r="R67" s="4" t="inlineStr"/>
-      <c r="S67" s="4" t="inlineStr"/>
-      <c r="T67" s="4" t="inlineStr"/>
-      <c r="U67" s="4" t="inlineStr"/>
-      <c r="V67" s="4" t="inlineStr"/>
-      <c r="W67" s="4" t="inlineStr"/>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W67" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -4621,29 +4633,17 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B68" s="4" t="inlineStr"/>
+      <c r="C68" s="4" t="inlineStr"/>
+      <c r="D68" s="4" t="inlineStr"/>
+      <c r="E68" s="4" t="inlineStr"/>
       <c r="F68" s="4" t="inlineStr"/>
       <c r="G68" s="4" t="inlineStr"/>
-      <c r="H68" s="4" t="inlineStr"/>
+      <c r="H68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I68" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4659,11 +4659,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L68" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L68" s="4" t="inlineStr"/>
       <c r="M68" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4689,12 +4685,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R68" s="4" t="inlineStr"/>
-      <c r="S68" s="4" t="inlineStr"/>
-      <c r="T68" s="4" t="inlineStr"/>
-      <c r="U68" s="4" t="inlineStr"/>
-      <c r="V68" s="4" t="inlineStr"/>
-      <c r="W68" s="4" t="inlineStr"/>
+      <c r="R68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W68" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -4706,27 +4726,15 @@
       <c r="C69" s="4" t="inlineStr"/>
       <c r="D69" s="4" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr"/>
-      <c r="F69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J69" s="4" t="inlineStr"/>
+      <c r="F69" s="4" t="inlineStr"/>
+      <c r="G69" s="4" t="inlineStr"/>
+      <c r="H69" s="4" t="inlineStr"/>
+      <c r="I69" s="4" t="inlineStr"/>
+      <c r="J69" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4757,11 +4765,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q69" s="4" t="inlineStr"/>
       <c r="R69" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4787,11 +4791,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W69" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W69" s="4" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -4799,9 +4799,21 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B70" s="4" t="inlineStr"/>
-      <c r="C70" s="4" t="inlineStr"/>
-      <c r="D70" s="4" t="inlineStr"/>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E70" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4817,25 +4829,29 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K70" s="4" t="inlineStr"/>
-      <c r="L70" s="4" t="inlineStr"/>
-      <c r="M70" s="4" t="inlineStr"/>
-      <c r="N70" s="4" t="inlineStr"/>
+      <c r="H70" s="4" t="inlineStr"/>
+      <c r="I70" s="4" t="inlineStr"/>
+      <c r="J70" s="4" t="inlineStr"/>
+      <c r="K70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N70" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O70" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -4861,26 +4877,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W70" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T70" s="4" t="inlineStr"/>
+      <c r="U70" s="4" t="inlineStr"/>
+      <c r="V70" s="4" t="inlineStr"/>
+      <c r="W70" s="4" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -5068,17 +5068,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5087,7 +5087,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>0.5</v>
@@ -5111,17 +5111,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I3" t="n">
         <v>0.5</v>
@@ -5154,29 +5154,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5197,17 +5185,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -5228,26 +5228,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
@@ -5271,22 +5271,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -5314,19 +5314,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>19:00</t>
@@ -5335,9 +5327,7 @@
       <c r="H8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5357,17 +5347,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -5376,10 +5366,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -5400,29 +5390,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5443,7 +5421,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -5462,7 +5440,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -5486,29 +5464,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -5534,12 +5512,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -5587,11 +5565,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5615,17 +5593,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -5646,17 +5636,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
@@ -5677,29 +5679,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5720,17 +5710,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5739,10 +5729,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -5806,29 +5796,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -5849,26 +5839,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I21" t="n">
         <v>0.5</v>
@@ -5892,26 +5882,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I22" t="n">
         <v>0.5</v>
@@ -5935,17 +5925,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
@@ -5966,17 +5968,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5985,10 +5987,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -6019,19 +6021,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
@@ -6052,17 +6054,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6071,10 +6073,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27">
@@ -6100,24 +6102,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -6138,17 +6140,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -6157,10 +6159,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -6181,29 +6183,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6224,7 +6214,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6239,7 +6229,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -6267,26 +6257,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
         <v>0.5</v>
@@ -6310,17 +6300,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -6341,29 +6343,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11:30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6384,12 +6374,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6399,14 +6389,14 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -6427,26 +6417,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
         <v>0.5</v>
@@ -6470,17 +6460,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6492,7 +6482,7 @@
         <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="37">
@@ -6513,29 +6503,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6556,17 +6534,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="39">
@@ -6587,29 +6577,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -6630,12 +6620,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -6652,7 +6642,7 @@
         <v>7.5</v>
       </c>
       <c r="I40" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -6678,24 +6668,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42">
@@ -6716,17 +6706,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -6735,7 +6725,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I42" t="n">
         <v>0.5</v>
@@ -6759,11 +6749,19 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>19:00</t>
@@ -6772,7 +6770,9 @@
       <c r="H43" t="n">
         <v>6</v>
       </c>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -6792,29 +6792,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6835,26 +6823,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I45" t="n">
         <v>0.5</v>
@@ -6878,17 +6866,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47">
@@ -6909,29 +6909,29 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -6952,26 +6952,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I48" t="n">
         <v>0.5</v>
@@ -6995,29 +6995,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>7.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50">
